--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件驳回件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件驳回件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,430 +483,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3438</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1474</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7810</v>
+      </c>
       <c r="G2" t="n">
-        <v>14908</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>18739</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>886</v>
+      </c>
+      <c r="J2" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>480</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2597</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2914</v>
+      </c>
+      <c r="E3" t="n">
+        <v>993</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6979</v>
+      </c>
       <c r="G3" t="n">
-        <v>16442</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>17993</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5265</v>
+      </c>
+      <c r="I3" t="n">
+        <v>807</v>
+      </c>
+      <c r="J3" t="n">
+        <v>555</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>524</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2183</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2434</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6283</v>
+      </c>
       <c r="G4" t="n">
-        <v>16332</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>17994</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6183</v>
+      </c>
+      <c r="I4" t="n">
+        <v>888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>559</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>523</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2414</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2754</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1111</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6806</v>
+      </c>
       <c r="G5" t="n">
-        <v>14912</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>24877</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11890</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1186</v>
+      </c>
+      <c r="J5" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>884</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3335</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9814</v>
+      </c>
       <c r="G6" t="n">
-        <v>14869</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>29888</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11842</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1712</v>
+      </c>
+      <c r="J6" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395</v>
+        <v>1542</v>
       </c>
       <c r="C7" t="n">
-        <v>2780</v>
+        <v>5162</v>
       </c>
       <c r="D7" t="n">
-        <v>2947</v>
+        <v>5766</v>
       </c>
       <c r="E7" t="n">
-        <v>5584</v>
+        <v>4221</v>
       </c>
       <c r="F7" t="n">
-        <v>2153</v>
+        <v>18787</v>
       </c>
       <c r="G7" t="n">
-        <v>14995</v>
+        <v>47541</v>
       </c>
       <c r="H7" t="n">
-        <v>3417</v>
+        <v>14676</v>
       </c>
       <c r="I7" t="n">
-        <v>481</v>
+        <v>2391</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343</v>
+        <v>2737</v>
       </c>
       <c r="C8" t="n">
-        <v>3006</v>
+        <v>8381</v>
       </c>
       <c r="D8" t="n">
-        <v>3313</v>
+        <v>9101</v>
       </c>
       <c r="E8" t="n">
-        <v>1751</v>
+        <v>4261</v>
       </c>
       <c r="F8" t="n">
-        <v>7449</v>
+        <v>22879</v>
       </c>
       <c r="G8" t="n">
-        <v>16452</v>
+        <v>62371</v>
       </c>
       <c r="H8" t="n">
-        <v>2700</v>
+        <v>18348</v>
       </c>
       <c r="I8" t="n">
-        <v>673</v>
+        <v>3465</v>
       </c>
       <c r="J8" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>369</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3187</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3565</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1478</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7517</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18894</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5102</v>
-      </c>
-      <c r="I9" t="n">
-        <v>693</v>
-      </c>
-      <c r="J9" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>484</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3131</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3438</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1474</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7810</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18739</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4549</v>
-      </c>
-      <c r="I10" t="n">
-        <v>886</v>
-      </c>
-      <c r="J10" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>480</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2597</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2914</v>
-      </c>
-      <c r="E11" t="n">
-        <v>993</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6979</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17993</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5265</v>
-      </c>
-      <c r="I11" t="n">
-        <v>807</v>
-      </c>
-      <c r="J11" t="n">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>524</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2183</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2434</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1123</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6283</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17994</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6183</v>
-      </c>
-      <c r="I12" t="n">
-        <v>888</v>
-      </c>
-      <c r="J12" t="n">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>523</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2414</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2754</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1111</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6806</v>
-      </c>
-      <c r="G13" t="n">
-        <v>24877</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11890</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1186</v>
-      </c>
-      <c r="J13" t="n">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>884</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3002</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3335</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1344</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9814</v>
-      </c>
-      <c r="G14" t="n">
-        <v>29888</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11842</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1712</v>
-      </c>
-      <c r="J14" t="n">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1542</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5162</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5766</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4221</v>
-      </c>
-      <c r="F15" t="n">
-        <v>18787</v>
-      </c>
-      <c r="G15" t="n">
-        <v>47541</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14676</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2391</v>
-      </c>
-      <c r="J15" t="n">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2737</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8381</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9101</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4261</v>
-      </c>
-      <c r="F16" t="n">
-        <v>22879</v>
-      </c>
-      <c r="G16" t="n">
-        <v>62371</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18348</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3465</v>
-      </c>
-      <c r="J16" t="n">
         <v>1580</v>
       </c>
     </row>
